--- a/individual_case_outputs/avey/66.xlsx
+++ b/individual_case_outputs/avey/66.xlsx
@@ -557,7 +557,7 @@
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>frozen shoulder</t>
+          <t>painful shoulder joint</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
@@ -582,7 +582,7 @@
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>tendinopathy</t>
+          <t>rotator cuff injury</t>
         </is>
       </c>
     </row>
@@ -683,11 +683,7 @@
           <t>rotator cuff injury</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>rotator cuff injury</t>
-        </is>
-      </c>
+      <c r="G4" t="inlineStr"/>
       <c r="H4" t="inlineStr">
         <is>
           <t>shoulder brusitis</t>
